--- a/DataFiles/Observed.xlsx
+++ b/DataFiles/Observed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\REMS\DemoData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\GitHub\REMS2020\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>Experiment</t>
   </si>
@@ -183,16 +183,76 @@
     <t>SimulationName</t>
   </si>
   <si>
-    <t xml:space="preserve">CSH13R-Cultivar, CSH13R-Cultivar, CSH13R-Cultivar, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35-1-Cultivar, M35-1-Cultivar, M35-1-Cultivar, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATX623/RTX430-Cultivar, ATX623/RTX430-Cultivar, ATX623/RTX430-Cultivar, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QL41/QL36-Cultivar, QL41/QL36-Cultivar, QL41/QL36-Cultivar, </t>
+    <t>Sorghum_BW5 GxE_1</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_10</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_11</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_12</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_2</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_3</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_4</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_5</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_6</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_7</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_8</t>
+  </si>
+  <si>
+    <t>Sorghum_BW5 GxE_9</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_13</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_22</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_23</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_24</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_14</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_15</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_16</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_17</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_18</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_19</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_20</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8 GxE_21</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1062,7 @@
   <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1199,7 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1207,7 +1267,7 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1411,7 +1471,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1479,7 +1539,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1547,7 +1607,7 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1615,7 +1675,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -1683,7 +1743,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -1751,7 +1811,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -1819,7 +1879,7 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1887,7 +1947,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1955,7 +2015,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -2023,7 +2083,7 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -2091,7 +2151,7 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -2159,7 +2219,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -2227,7 +2287,7 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -2295,7 +2355,7 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -2363,7 +2423,7 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -2431,7 +2491,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -2499,7 +2559,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -2567,7 +2627,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -2635,7 +2695,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -2703,7 +2763,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
